--- a/設計書等/ゲーム新規登録サイト-基本設計書.xlsx
+++ b/設計書等/ゲーム新規登録サイト-基本設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Kusaba\Documents\ゲーム新規登録サイト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Kusaba\Documents\game_register\設計書等\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E8C11-F8CD-40AB-8EE7-E29B340EC12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210B84E5-EA10-4C49-8B67-82C440D9D2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="15495" windowHeight="21075" xr2:uid="{1D778B58-8BE1-4BBD-B0B5-24A11289C54D}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="15495" windowHeight="21075" xr2:uid="{1D778B58-8BE1-4BBD-B0B5-24A11289C54D}"/>
   </bookViews>
   <sheets>
     <sheet name="オーバービュー" sheetId="1" r:id="rId1"/>
@@ -2239,6 +2239,12 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,6 +2257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,6 +2273,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2280,6 +2298,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2301,36 +2331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2859,7 +2859,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="25000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4085,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B0C833-9300-472B-98E2-3F00D8AE8D68}">
   <dimension ref="A1:AW283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI86" sqref="AI86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16566,12 +16578,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B3:AO25"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
     <mergeCell ref="J40:M40"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="J33:M33"/>
@@ -16579,6 +16585,12 @@
     <mergeCell ref="J35:M35"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B3:AO25"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19190,79 +19202,79 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A1" s="171"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169" t="s">
+      <c r="A1" s="164"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169" t="s">
+      <c r="O1" s="141"/>
+      <c r="P1" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169" t="s">
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169" t="s">
+      <c r="S1" s="141"/>
+      <c r="T1" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169" t="s">
+      <c r="U1" s="141"/>
+      <c r="V1" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169" t="s">
+      <c r="W1" s="141"/>
+      <c r="X1" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169" t="s">
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="169"/>
-      <c r="AL1" s="170"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="142"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A2" s="141">
+      <c r="A2" s="143">
         <v>1</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="145" t="s">
+      <c r="B2" s="144"/>
+      <c r="C2" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="142"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="144"/>
       <c r="N2" s="87"/>
       <c r="O2" s="88"/>
       <c r="P2" s="87"/>
@@ -19277,34 +19289,34 @@
       <c r="Y2" s="88"/>
       <c r="Z2" s="87"/>
       <c r="AA2" s="88"/>
-      <c r="AB2" s="149" t="s">
+      <c r="AB2" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="157"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="146"/>
       <c r="N3" s="89"/>
       <c r="O3" s="90"/>
       <c r="P3" s="89"/>
@@ -19319,32 +19331,32 @@
       <c r="Y3" s="90"/>
       <c r="Z3" s="89"/>
       <c r="AA3" s="90"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="153"/>
-      <c r="AJ3" s="153"/>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="154"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="159"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="143"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="144"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="146"/>
       <c r="N4" s="89"/>
       <c r="O4" s="90"/>
       <c r="P4" s="89"/>
@@ -19359,32 +19371,32 @@
       <c r="Y4" s="90"/>
       <c r="Z4" s="89"/>
       <c r="AA4" s="90"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="153"/>
-      <c r="AH4" s="153"/>
-      <c r="AI4" s="153"/>
-      <c r="AJ4" s="153"/>
-      <c r="AK4" s="153"/>
-      <c r="AL4" s="154"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="160"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="143"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="144"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="146"/>
       <c r="N5" s="89"/>
       <c r="O5" s="90"/>
       <c r="P5" s="89"/>
@@ -19399,32 +19411,32 @@
       <c r="Y5" s="90"/>
       <c r="Z5" s="89"/>
       <c r="AA5" s="90"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="154"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="159"/>
+      <c r="AF5" s="159"/>
+      <c r="AG5" s="159"/>
+      <c r="AH5" s="159"/>
+      <c r="AI5" s="159"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="159"/>
+      <c r="AL5" s="160"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="163"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="91"/>
       <c r="O6" s="92"/>
       <c r="P6" s="91"/>
@@ -19439,36 +19451,36 @@
       <c r="Y6" s="92"/>
       <c r="Z6" s="91"/>
       <c r="AA6" s="92"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="168"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="163"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="141">
+      <c r="A7" s="143">
         <v>2</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="145" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="142"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="87"/>
       <c r="O7" s="88"/>
       <c r="P7" s="87"/>
@@ -19483,34 +19495,34 @@
       <c r="Y7" s="88"/>
       <c r="Z7" s="87"/>
       <c r="AA7" s="88"/>
-      <c r="AB7" s="149" t="s">
+      <c r="AB7" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="151"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="156"/>
+      <c r="AF7" s="156"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="157"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="144"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="146"/>
       <c r="N8" s="89"/>
       <c r="O8" s="90"/>
       <c r="P8" s="89"/>
@@ -19525,32 +19537,32 @@
       <c r="Y8" s="90"/>
       <c r="Z8" s="89"/>
       <c r="AA8" s="90"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="153"/>
-      <c r="AG8" s="153"/>
-      <c r="AH8" s="153"/>
-      <c r="AI8" s="153"/>
-      <c r="AJ8" s="153"/>
-      <c r="AK8" s="153"/>
-      <c r="AL8" s="154"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="159"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="159"/>
+      <c r="AJ8" s="159"/>
+      <c r="AK8" s="159"/>
+      <c r="AL8" s="160"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="146"/>
       <c r="N9" s="89"/>
       <c r="O9" s="90"/>
       <c r="P9" s="89"/>
@@ -19565,32 +19577,32 @@
       <c r="Y9" s="90"/>
       <c r="Z9" s="89"/>
       <c r="AA9" s="90"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="153"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="154"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="159"/>
+      <c r="AE9" s="159"/>
+      <c r="AF9" s="159"/>
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="159"/>
+      <c r="AJ9" s="159"/>
+      <c r="AK9" s="159"/>
+      <c r="AL9" s="160"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="144"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="146"/>
       <c r="N10" s="89"/>
       <c r="O10" s="90"/>
       <c r="P10" s="89"/>
@@ -19605,32 +19617,32 @@
       <c r="Y10" s="90"/>
       <c r="Z10" s="89"/>
       <c r="AA10" s="90"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="154"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="159"/>
+      <c r="AK10" s="159"/>
+      <c r="AL10" s="160"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="162"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="163"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="148"/>
       <c r="N11" s="91"/>
       <c r="O11" s="92"/>
       <c r="P11" s="91"/>
@@ -19645,36 +19657,36 @@
       <c r="Y11" s="92"/>
       <c r="Z11" s="91"/>
       <c r="AA11" s="92"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="167"/>
-      <c r="AJ11" s="167"/>
-      <c r="AK11" s="167"/>
-      <c r="AL11" s="168"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="162"/>
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="163"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="141">
+      <c r="A12" s="143">
         <v>2</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="145" t="s">
+      <c r="B12" s="144"/>
+      <c r="C12" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="142"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="144"/>
       <c r="N12" s="87"/>
       <c r="O12" s="88"/>
       <c r="P12" s="87"/>
@@ -19689,32 +19701,32 @@
       <c r="Y12" s="88"/>
       <c r="Z12" s="87"/>
       <c r="AA12" s="88"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="150"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="151"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="156"/>
+      <c r="AK12" s="156"/>
+      <c r="AL12" s="157"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A13" s="143"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="144"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="146"/>
       <c r="N13" s="89"/>
       <c r="O13" s="90"/>
       <c r="P13" s="89"/>
@@ -19729,32 +19741,32 @@
       <c r="Y13" s="90"/>
       <c r="Z13" s="89"/>
       <c r="AA13" s="90"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="153"/>
-      <c r="AD13" s="153"/>
-      <c r="AE13" s="153"/>
-      <c r="AF13" s="153"/>
-      <c r="AG13" s="153"/>
-      <c r="AH13" s="153"/>
-      <c r="AI13" s="153"/>
-      <c r="AJ13" s="153"/>
-      <c r="AK13" s="153"/>
-      <c r="AL13" s="154"/>
+      <c r="AB13" s="158"/>
+      <c r="AC13" s="159"/>
+      <c r="AD13" s="159"/>
+      <c r="AE13" s="159"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="159"/>
+      <c r="AK13" s="159"/>
+      <c r="AL13" s="160"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="143"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="144"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="146"/>
       <c r="N14" s="89"/>
       <c r="O14" s="90"/>
       <c r="P14" s="89"/>
@@ -19769,32 +19781,32 @@
       <c r="Y14" s="90"/>
       <c r="Z14" s="89"/>
       <c r="AA14" s="90"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="153"/>
-      <c r="AK14" s="153"/>
-      <c r="AL14" s="154"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="159"/>
+      <c r="AD14" s="159"/>
+      <c r="AE14" s="159"/>
+      <c r="AF14" s="159"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="159"/>
+      <c r="AK14" s="159"/>
+      <c r="AL14" s="160"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="144"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="146"/>
       <c r="N15" s="89"/>
       <c r="O15" s="90"/>
       <c r="P15" s="89"/>
@@ -19809,32 +19821,32 @@
       <c r="Y15" s="90"/>
       <c r="Z15" s="89"/>
       <c r="AA15" s="90"/>
-      <c r="AB15" s="152"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="153"/>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="154"/>
+      <c r="AB15" s="158"/>
+      <c r="AC15" s="159"/>
+      <c r="AD15" s="159"/>
+      <c r="AE15" s="159"/>
+      <c r="AF15" s="159"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="159"/>
+      <c r="AK15" s="159"/>
+      <c r="AL15" s="160"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="162"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="163"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="148"/>
       <c r="N16" s="91"/>
       <c r="O16" s="92"/>
       <c r="P16" s="91"/>
@@ -19849,36 +19861,36 @@
       <c r="Y16" s="92"/>
       <c r="Z16" s="91"/>
       <c r="AA16" s="92"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="167"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="167"/>
-      <c r="AL16" s="168"/>
+      <c r="AB16" s="161"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="162"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="163"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="141">
+      <c r="A17" s="143">
         <v>3</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="145" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="142"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="144"/>
       <c r="N17" s="87"/>
       <c r="O17" s="88"/>
       <c r="P17" s="87"/>
@@ -19893,34 +19905,34 @@
       <c r="Y17" s="88"/>
       <c r="Z17" s="87"/>
       <c r="AA17" s="88"/>
-      <c r="AB17" s="149" t="s">
+      <c r="AB17" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="AC17" s="150"/>
-      <c r="AD17" s="150"/>
-      <c r="AE17" s="150"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="150"/>
-      <c r="AI17" s="150"/>
-      <c r="AJ17" s="150"/>
-      <c r="AK17" s="150"/>
-      <c r="AL17" s="151"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="156"/>
+      <c r="AH17" s="156"/>
+      <c r="AI17" s="156"/>
+      <c r="AJ17" s="156"/>
+      <c r="AK17" s="156"/>
+      <c r="AL17" s="157"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="144"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="146"/>
       <c r="N18" s="89"/>
       <c r="O18" s="90"/>
       <c r="P18" s="89"/>
@@ -19935,32 +19947,32 @@
       <c r="Y18" s="90"/>
       <c r="Z18" s="89"/>
       <c r="AA18" s="90"/>
-      <c r="AB18" s="152"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="153"/>
-      <c r="AK18" s="153"/>
-      <c r="AL18" s="154"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="159"/>
+      <c r="AE18" s="159"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="159"/>
+      <c r="AJ18" s="159"/>
+      <c r="AK18" s="159"/>
+      <c r="AL18" s="160"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="144"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="146"/>
       <c r="N19" s="89"/>
       <c r="O19" s="90"/>
       <c r="P19" s="89"/>
@@ -19975,32 +19987,32 @@
       <c r="Y19" s="90"/>
       <c r="Z19" s="89"/>
       <c r="AA19" s="90"/>
-      <c r="AB19" s="152"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="153"/>
-      <c r="AI19" s="153"/>
-      <c r="AJ19" s="153"/>
-      <c r="AK19" s="153"/>
-      <c r="AL19" s="154"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="159"/>
+      <c r="AD19" s="159"/>
+      <c r="AE19" s="159"/>
+      <c r="AF19" s="159"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="159"/>
+      <c r="AJ19" s="159"/>
+      <c r="AK19" s="159"/>
+      <c r="AL19" s="160"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="146"/>
       <c r="N20" s="89"/>
       <c r="O20" s="90"/>
       <c r="P20" s="89"/>
@@ -20015,32 +20027,32 @@
       <c r="Y20" s="90"/>
       <c r="Z20" s="89"/>
       <c r="AA20" s="90"/>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="153"/>
-      <c r="AK20" s="153"/>
-      <c r="AL20" s="154"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="159"/>
+      <c r="AD20" s="159"/>
+      <c r="AE20" s="159"/>
+      <c r="AF20" s="159"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="159"/>
+      <c r="AJ20" s="159"/>
+      <c r="AK20" s="159"/>
+      <c r="AL20" s="160"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="162"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="163"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="148"/>
       <c r="N21" s="91"/>
       <c r="O21" s="92"/>
       <c r="P21" s="91"/>
@@ -20055,36 +20067,36 @@
       <c r="Y21" s="92"/>
       <c r="Z21" s="91"/>
       <c r="AA21" s="92"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="167"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="167"/>
-      <c r="AG21" s="167"/>
-      <c r="AH21" s="167"/>
-      <c r="AI21" s="167"/>
-      <c r="AJ21" s="167"/>
-      <c r="AK21" s="167"/>
-      <c r="AL21" s="168"/>
+      <c r="AB21" s="161"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="163"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="141">
+      <c r="A22" s="143">
         <v>4</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="145" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="142"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="144"/>
       <c r="N22" s="87"/>
       <c r="O22" s="88"/>
       <c r="P22" s="87"/>
@@ -20099,34 +20111,34 @@
       <c r="Y22" s="88"/>
       <c r="Z22" s="87"/>
       <c r="AA22" s="88"/>
-      <c r="AB22" s="149" t="s">
+      <c r="AB22" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="AC22" s="150"/>
-      <c r="AD22" s="150"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="150"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="150"/>
-      <c r="AJ22" s="150"/>
-      <c r="AK22" s="150"/>
-      <c r="AL22" s="151"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="156"/>
+      <c r="AL22" s="157"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="144"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="146"/>
       <c r="N23" s="89"/>
       <c r="O23" s="90"/>
       <c r="P23" s="89"/>
@@ -20141,32 +20153,32 @@
       <c r="Y23" s="90"/>
       <c r="Z23" s="89"/>
       <c r="AA23" s="90"/>
-      <c r="AB23" s="152"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="153"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="153"/>
-      <c r="AK23" s="153"/>
-      <c r="AL23" s="154"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="159"/>
+      <c r="AD23" s="159"/>
+      <c r="AE23" s="159"/>
+      <c r="AF23" s="159"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="159"/>
+      <c r="AJ23" s="159"/>
+      <c r="AK23" s="159"/>
+      <c r="AL23" s="160"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="144"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="146"/>
       <c r="N24" s="89"/>
       <c r="O24" s="90"/>
       <c r="P24" s="89"/>
@@ -20181,32 +20193,32 @@
       <c r="Y24" s="90"/>
       <c r="Z24" s="89"/>
       <c r="AA24" s="90"/>
-      <c r="AB24" s="152"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="153"/>
-      <c r="AK24" s="153"/>
-      <c r="AL24" s="154"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="159"/>
+      <c r="AD24" s="159"/>
+      <c r="AE24" s="159"/>
+      <c r="AF24" s="159"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="159"/>
+      <c r="AJ24" s="159"/>
+      <c r="AK24" s="159"/>
+      <c r="AL24" s="160"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="144"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="146"/>
       <c r="N25" s="89"/>
       <c r="O25" s="90"/>
       <c r="P25" s="89"/>
@@ -20221,32 +20233,32 @@
       <c r="Y25" s="90"/>
       <c r="Z25" s="89"/>
       <c r="AA25" s="90"/>
-      <c r="AB25" s="152"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="153"/>
-      <c r="AK25" s="153"/>
-      <c r="AL25" s="154"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="159"/>
+      <c r="AE25" s="159"/>
+      <c r="AF25" s="159"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="159"/>
+      <c r="AJ25" s="159"/>
+      <c r="AK25" s="159"/>
+      <c r="AL25" s="160"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="162"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="163"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="148"/>
       <c r="N26" s="91"/>
       <c r="O26" s="92"/>
       <c r="P26" s="91"/>
@@ -20261,36 +20273,36 @@
       <c r="Y26" s="92"/>
       <c r="Z26" s="91"/>
       <c r="AA26" s="92"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="167"/>
-      <c r="AE26" s="167"/>
-      <c r="AF26" s="167"/>
-      <c r="AG26" s="167"/>
-      <c r="AH26" s="167"/>
-      <c r="AI26" s="167"/>
-      <c r="AJ26" s="167"/>
-      <c r="AK26" s="167"/>
-      <c r="AL26" s="168"/>
+      <c r="AB26" s="161"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="163"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="141">
+      <c r="A27" s="143">
         <v>5</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="145" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="142"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="144"/>
       <c r="N27" s="87"/>
       <c r="O27" s="88"/>
       <c r="P27" s="87"/>
@@ -20305,34 +20317,34 @@
       <c r="Y27" s="88"/>
       <c r="Z27" s="87"/>
       <c r="AA27" s="88"/>
-      <c r="AB27" s="149" t="s">
+      <c r="AB27" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="150"/>
-      <c r="AJ27" s="150"/>
-      <c r="AK27" s="150"/>
-      <c r="AL27" s="151"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="156"/>
+      <c r="AH27" s="156"/>
+      <c r="AI27" s="156"/>
+      <c r="AJ27" s="156"/>
+      <c r="AK27" s="156"/>
+      <c r="AL27" s="157"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="144"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="146"/>
       <c r="N28" s="89"/>
       <c r="O28" s="90"/>
       <c r="P28" s="89"/>
@@ -20347,32 +20359,32 @@
       <c r="Y28" s="90"/>
       <c r="Z28" s="89"/>
       <c r="AA28" s="90"/>
-      <c r="AB28" s="152"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="154"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="159"/>
+      <c r="AJ28" s="159"/>
+      <c r="AK28" s="159"/>
+      <c r="AL28" s="160"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="144"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="146"/>
       <c r="N29" s="89"/>
       <c r="O29" s="90"/>
       <c r="P29" s="89"/>
@@ -20387,32 +20399,32 @@
       <c r="Y29" s="90"/>
       <c r="Z29" s="89"/>
       <c r="AA29" s="90"/>
-      <c r="AB29" s="152"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="153"/>
-      <c r="AJ29" s="153"/>
-      <c r="AK29" s="153"/>
-      <c r="AL29" s="154"/>
+      <c r="AB29" s="158"/>
+      <c r="AC29" s="159"/>
+      <c r="AD29" s="159"/>
+      <c r="AE29" s="159"/>
+      <c r="AF29" s="159"/>
+      <c r="AG29" s="159"/>
+      <c r="AH29" s="159"/>
+      <c r="AI29" s="159"/>
+      <c r="AJ29" s="159"/>
+      <c r="AK29" s="159"/>
+      <c r="AL29" s="160"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="144"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="146"/>
       <c r="N30" s="89"/>
       <c r="O30" s="90"/>
       <c r="P30" s="89"/>
@@ -20427,32 +20439,32 @@
       <c r="Y30" s="90"/>
       <c r="Z30" s="89"/>
       <c r="AA30" s="90"/>
-      <c r="AB30" s="152"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="153"/>
-      <c r="AJ30" s="153"/>
-      <c r="AK30" s="153"/>
-      <c r="AL30" s="154"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="159"/>
+      <c r="AD30" s="159"/>
+      <c r="AE30" s="159"/>
+      <c r="AF30" s="159"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="159"/>
+      <c r="AI30" s="159"/>
+      <c r="AJ30" s="159"/>
+      <c r="AK30" s="159"/>
+      <c r="AL30" s="160"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="162"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="163"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="148"/>
       <c r="N31" s="91"/>
       <c r="O31" s="92"/>
       <c r="P31" s="91"/>
@@ -20467,36 +20479,36 @@
       <c r="Y31" s="92"/>
       <c r="Z31" s="91"/>
       <c r="AA31" s="92"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="167"/>
-      <c r="AE31" s="167"/>
-      <c r="AF31" s="167"/>
-      <c r="AG31" s="167"/>
-      <c r="AH31" s="167"/>
-      <c r="AI31" s="167"/>
-      <c r="AJ31" s="167"/>
-      <c r="AK31" s="167"/>
-      <c r="AL31" s="168"/>
+      <c r="AB31" s="161"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="162"/>
+      <c r="AJ31" s="162"/>
+      <c r="AK31" s="162"/>
+      <c r="AL31" s="163"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="141">
+      <c r="A32" s="143">
         <v>6</v>
       </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="145" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="142"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="144"/>
       <c r="N32" s="87"/>
       <c r="O32" s="88"/>
       <c r="P32" s="87"/>
@@ -20511,32 +20523,32 @@
       <c r="Y32" s="88"/>
       <c r="Z32" s="87"/>
       <c r="AA32" s="88"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="150"/>
-      <c r="AD32" s="150"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="150"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="150"/>
-      <c r="AJ32" s="150"/>
-      <c r="AK32" s="150"/>
-      <c r="AL32" s="151"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="156"/>
+      <c r="AH32" s="156"/>
+      <c r="AI32" s="156"/>
+      <c r="AJ32" s="156"/>
+      <c r="AK32" s="156"/>
+      <c r="AL32" s="157"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="144"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="146"/>
       <c r="N33" s="89"/>
       <c r="O33" s="90"/>
       <c r="P33" s="89"/>
@@ -20551,32 +20563,32 @@
       <c r="Y33" s="90"/>
       <c r="Z33" s="89"/>
       <c r="AA33" s="90"/>
-      <c r="AB33" s="152"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="153"/>
-      <c r="AJ33" s="153"/>
-      <c r="AK33" s="153"/>
-      <c r="AL33" s="154"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="159"/>
+      <c r="AE33" s="159"/>
+      <c r="AF33" s="159"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="159"/>
+      <c r="AJ33" s="159"/>
+      <c r="AK33" s="159"/>
+      <c r="AL33" s="160"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="144"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="146"/>
       <c r="N34" s="89"/>
       <c r="O34" s="90"/>
       <c r="P34" s="89"/>
@@ -20591,32 +20603,32 @@
       <c r="Y34" s="90"/>
       <c r="Z34" s="89"/>
       <c r="AA34" s="90"/>
-      <c r="AB34" s="152"/>
-      <c r="AC34" s="153"/>
-      <c r="AD34" s="153"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="153"/>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="153"/>
-      <c r="AI34" s="153"/>
-      <c r="AJ34" s="153"/>
-      <c r="AK34" s="153"/>
-      <c r="AL34" s="154"/>
+      <c r="AB34" s="158"/>
+      <c r="AC34" s="159"/>
+      <c r="AD34" s="159"/>
+      <c r="AE34" s="159"/>
+      <c r="AF34" s="159"/>
+      <c r="AG34" s="159"/>
+      <c r="AH34" s="159"/>
+      <c r="AI34" s="159"/>
+      <c r="AJ34" s="159"/>
+      <c r="AK34" s="159"/>
+      <c r="AL34" s="160"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="144"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="146"/>
       <c r="N35" s="89"/>
       <c r="O35" s="90"/>
       <c r="P35" s="89"/>
@@ -20631,32 +20643,32 @@
       <c r="Y35" s="90"/>
       <c r="Z35" s="89"/>
       <c r="AA35" s="90"/>
-      <c r="AB35" s="152"/>
-      <c r="AC35" s="153"/>
-      <c r="AD35" s="153"/>
-      <c r="AE35" s="153"/>
-      <c r="AF35" s="153"/>
-      <c r="AG35" s="153"/>
-      <c r="AH35" s="153"/>
-      <c r="AI35" s="153"/>
-      <c r="AJ35" s="153"/>
-      <c r="AK35" s="153"/>
-      <c r="AL35" s="154"/>
+      <c r="AB35" s="158"/>
+      <c r="AC35" s="159"/>
+      <c r="AD35" s="159"/>
+      <c r="AE35" s="159"/>
+      <c r="AF35" s="159"/>
+      <c r="AG35" s="159"/>
+      <c r="AH35" s="159"/>
+      <c r="AI35" s="159"/>
+      <c r="AJ35" s="159"/>
+      <c r="AK35" s="159"/>
+      <c r="AL35" s="160"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="162"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="165"/>
-      <c r="M36" s="163"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="148"/>
       <c r="N36" s="91"/>
       <c r="O36" s="92"/>
       <c r="P36" s="91"/>
@@ -20671,36 +20683,36 @@
       <c r="Y36" s="92"/>
       <c r="Z36" s="91"/>
       <c r="AA36" s="92"/>
-      <c r="AB36" s="166"/>
-      <c r="AC36" s="167"/>
-      <c r="AD36" s="167"/>
-      <c r="AE36" s="167"/>
-      <c r="AF36" s="167"/>
-      <c r="AG36" s="167"/>
-      <c r="AH36" s="167"/>
-      <c r="AI36" s="167"/>
-      <c r="AJ36" s="167"/>
-      <c r="AK36" s="167"/>
-      <c r="AL36" s="168"/>
+      <c r="AB36" s="161"/>
+      <c r="AC36" s="162"/>
+      <c r="AD36" s="162"/>
+      <c r="AE36" s="162"/>
+      <c r="AF36" s="162"/>
+      <c r="AG36" s="162"/>
+      <c r="AH36" s="162"/>
+      <c r="AI36" s="162"/>
+      <c r="AJ36" s="162"/>
+      <c r="AK36" s="162"/>
+      <c r="AL36" s="163"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="141">
+      <c r="A37" s="143">
         <v>7</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="145" t="s">
+      <c r="B37" s="144"/>
+      <c r="C37" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="142"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="144"/>
       <c r="N37" s="87"/>
       <c r="O37" s="88"/>
       <c r="P37" s="87"/>
@@ -20715,34 +20727,34 @@
       <c r="Y37" s="88"/>
       <c r="Z37" s="87"/>
       <c r="AA37" s="88"/>
-      <c r="AB37" s="149" t="s">
+      <c r="AB37" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="AC37" s="150"/>
-      <c r="AD37" s="150"/>
-      <c r="AE37" s="150"/>
-      <c r="AF37" s="150"/>
-      <c r="AG37" s="150"/>
-      <c r="AH37" s="150"/>
-      <c r="AI37" s="150"/>
-      <c r="AJ37" s="150"/>
-      <c r="AK37" s="150"/>
-      <c r="AL37" s="151"/>
+      <c r="AC37" s="156"/>
+      <c r="AD37" s="156"/>
+      <c r="AE37" s="156"/>
+      <c r="AF37" s="156"/>
+      <c r="AG37" s="156"/>
+      <c r="AH37" s="156"/>
+      <c r="AI37" s="156"/>
+      <c r="AJ37" s="156"/>
+      <c r="AK37" s="156"/>
+      <c r="AL37" s="157"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="143"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="144"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="146"/>
       <c r="N38" s="89"/>
       <c r="O38" s="90"/>
       <c r="P38" s="89"/>
@@ -20757,32 +20769,32 @@
       <c r="Y38" s="90"/>
       <c r="Z38" s="89"/>
       <c r="AA38" s="90"/>
-      <c r="AB38" s="152"/>
-      <c r="AC38" s="153"/>
-      <c r="AD38" s="153"/>
-      <c r="AE38" s="153"/>
-      <c r="AF38" s="153"/>
-      <c r="AG38" s="153"/>
-      <c r="AH38" s="153"/>
-      <c r="AI38" s="153"/>
-      <c r="AJ38" s="153"/>
-      <c r="AK38" s="153"/>
-      <c r="AL38" s="154"/>
+      <c r="AB38" s="158"/>
+      <c r="AC38" s="159"/>
+      <c r="AD38" s="159"/>
+      <c r="AE38" s="159"/>
+      <c r="AF38" s="159"/>
+      <c r="AG38" s="159"/>
+      <c r="AH38" s="159"/>
+      <c r="AI38" s="159"/>
+      <c r="AJ38" s="159"/>
+      <c r="AK38" s="159"/>
+      <c r="AL38" s="160"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="143"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="144"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="146"/>
       <c r="N39" s="89"/>
       <c r="O39" s="90"/>
       <c r="P39" s="89"/>
@@ -20797,32 +20809,32 @@
       <c r="Y39" s="90"/>
       <c r="Z39" s="89"/>
       <c r="AA39" s="90"/>
-      <c r="AB39" s="152"/>
-      <c r="AC39" s="153"/>
-      <c r="AD39" s="153"/>
-      <c r="AE39" s="153"/>
-      <c r="AF39" s="153"/>
-      <c r="AG39" s="153"/>
-      <c r="AH39" s="153"/>
-      <c r="AI39" s="153"/>
-      <c r="AJ39" s="153"/>
-      <c r="AK39" s="153"/>
-      <c r="AL39" s="154"/>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="159"/>
+      <c r="AD39" s="159"/>
+      <c r="AE39" s="159"/>
+      <c r="AF39" s="159"/>
+      <c r="AG39" s="159"/>
+      <c r="AH39" s="159"/>
+      <c r="AI39" s="159"/>
+      <c r="AJ39" s="159"/>
+      <c r="AK39" s="159"/>
+      <c r="AL39" s="160"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="143"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="144"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="146"/>
       <c r="N40" s="89"/>
       <c r="O40" s="90"/>
       <c r="P40" s="89"/>
@@ -20837,32 +20849,32 @@
       <c r="Y40" s="90"/>
       <c r="Z40" s="89"/>
       <c r="AA40" s="90"/>
-      <c r="AB40" s="152"/>
-      <c r="AC40" s="153"/>
-      <c r="AD40" s="153"/>
-      <c r="AE40" s="153"/>
-      <c r="AF40" s="153"/>
-      <c r="AG40" s="153"/>
-      <c r="AH40" s="153"/>
-      <c r="AI40" s="153"/>
-      <c r="AJ40" s="153"/>
-      <c r="AK40" s="153"/>
-      <c r="AL40" s="154"/>
+      <c r="AB40" s="158"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="159"/>
+      <c r="AE40" s="159"/>
+      <c r="AF40" s="159"/>
+      <c r="AG40" s="159"/>
+      <c r="AH40" s="159"/>
+      <c r="AI40" s="159"/>
+      <c r="AJ40" s="159"/>
+      <c r="AK40" s="159"/>
+      <c r="AL40" s="160"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="144"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="146"/>
       <c r="N41" s="89"/>
       <c r="O41" s="90"/>
       <c r="P41" s="89"/>
@@ -20877,36 +20889,36 @@
       <c r="Y41" s="90"/>
       <c r="Z41" s="89"/>
       <c r="AA41" s="90"/>
-      <c r="AB41" s="152"/>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="153"/>
-      <c r="AE41" s="153"/>
-      <c r="AF41" s="153"/>
-      <c r="AG41" s="153"/>
-      <c r="AH41" s="153"/>
-      <c r="AI41" s="153"/>
-      <c r="AJ41" s="153"/>
-      <c r="AK41" s="153"/>
-      <c r="AL41" s="154"/>
+      <c r="AB41" s="158"/>
+      <c r="AC41" s="159"/>
+      <c r="AD41" s="159"/>
+      <c r="AE41" s="159"/>
+      <c r="AF41" s="159"/>
+      <c r="AG41" s="159"/>
+      <c r="AH41" s="159"/>
+      <c r="AI41" s="159"/>
+      <c r="AJ41" s="159"/>
+      <c r="AK41" s="159"/>
+      <c r="AL41" s="160"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="141">
+      <c r="A42" s="143">
         <v>8</v>
       </c>
-      <c r="B42" s="142"/>
-      <c r="C42" s="145" t="s">
+      <c r="B42" s="144"/>
+      <c r="C42" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="142"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="144"/>
       <c r="N42" s="87"/>
       <c r="O42" s="88"/>
       <c r="P42" s="87"/>
@@ -20921,34 +20933,34 @@
       <c r="Y42" s="88"/>
       <c r="Z42" s="87"/>
       <c r="AA42" s="88"/>
-      <c r="AB42" s="149" t="s">
+      <c r="AB42" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
+      <c r="AC42" s="156"/>
+      <c r="AD42" s="156"/>
+      <c r="AE42" s="156"/>
+      <c r="AF42" s="156"/>
+      <c r="AG42" s="156"/>
+      <c r="AH42" s="156"/>
+      <c r="AI42" s="156"/>
+      <c r="AJ42" s="156"/>
+      <c r="AK42" s="156"/>
+      <c r="AL42" s="157"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="143"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="144"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="146"/>
       <c r="N43" s="89"/>
       <c r="O43" s="90"/>
       <c r="P43" s="89"/>
@@ -20963,32 +20975,32 @@
       <c r="Y43" s="90"/>
       <c r="Z43" s="89"/>
       <c r="AA43" s="90"/>
-      <c r="AB43" s="152"/>
-      <c r="AC43" s="153"/>
-      <c r="AD43" s="153"/>
-      <c r="AE43" s="153"/>
-      <c r="AF43" s="153"/>
-      <c r="AG43" s="153"/>
-      <c r="AH43" s="153"/>
-      <c r="AI43" s="153"/>
-      <c r="AJ43" s="153"/>
-      <c r="AK43" s="153"/>
-      <c r="AL43" s="154"/>
+      <c r="AB43" s="158"/>
+      <c r="AC43" s="159"/>
+      <c r="AD43" s="159"/>
+      <c r="AE43" s="159"/>
+      <c r="AF43" s="159"/>
+      <c r="AG43" s="159"/>
+      <c r="AH43" s="159"/>
+      <c r="AI43" s="159"/>
+      <c r="AJ43" s="159"/>
+      <c r="AK43" s="159"/>
+      <c r="AL43" s="160"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="143"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="144"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="146"/>
       <c r="N44" s="89"/>
       <c r="O44" s="90"/>
       <c r="P44" s="89"/>
@@ -21003,32 +21015,32 @@
       <c r="Y44" s="90"/>
       <c r="Z44" s="89"/>
       <c r="AA44" s="90"/>
-      <c r="AB44" s="152"/>
-      <c r="AC44" s="153"/>
-      <c r="AD44" s="153"/>
-      <c r="AE44" s="153"/>
-      <c r="AF44" s="153"/>
-      <c r="AG44" s="153"/>
-      <c r="AH44" s="153"/>
-      <c r="AI44" s="153"/>
-      <c r="AJ44" s="153"/>
-      <c r="AK44" s="153"/>
-      <c r="AL44" s="154"/>
+      <c r="AB44" s="158"/>
+      <c r="AC44" s="159"/>
+      <c r="AD44" s="159"/>
+      <c r="AE44" s="159"/>
+      <c r="AF44" s="159"/>
+      <c r="AG44" s="159"/>
+      <c r="AH44" s="159"/>
+      <c r="AI44" s="159"/>
+      <c r="AJ44" s="159"/>
+      <c r="AK44" s="159"/>
+      <c r="AL44" s="160"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="143"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="144"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="146"/>
       <c r="N45" s="89"/>
       <c r="O45" s="90"/>
       <c r="P45" s="89"/>
@@ -21043,32 +21055,32 @@
       <c r="Y45" s="90"/>
       <c r="Z45" s="89"/>
       <c r="AA45" s="90"/>
-      <c r="AB45" s="152"/>
-      <c r="AC45" s="153"/>
-      <c r="AD45" s="153"/>
-      <c r="AE45" s="153"/>
-      <c r="AF45" s="153"/>
-      <c r="AG45" s="153"/>
-      <c r="AH45" s="153"/>
-      <c r="AI45" s="153"/>
-      <c r="AJ45" s="153"/>
-      <c r="AK45" s="153"/>
-      <c r="AL45" s="154"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="159"/>
+      <c r="AD45" s="159"/>
+      <c r="AE45" s="159"/>
+      <c r="AF45" s="159"/>
+      <c r="AG45" s="159"/>
+      <c r="AH45" s="159"/>
+      <c r="AI45" s="159"/>
+      <c r="AJ45" s="159"/>
+      <c r="AK45" s="159"/>
+      <c r="AL45" s="160"/>
     </row>
     <row r="46" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="156"/>
+      <c r="A46" s="165"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="166"/>
       <c r="N46" s="93"/>
       <c r="O46" s="94"/>
       <c r="P46" s="93"/>
@@ -21083,20 +21095,44 @@
       <c r="Y46" s="94"/>
       <c r="Z46" s="93"/>
       <c r="AA46" s="94"/>
-      <c r="AB46" s="159"/>
-      <c r="AC46" s="160"/>
-      <c r="AD46" s="160"/>
-      <c r="AE46" s="160"/>
-      <c r="AF46" s="160"/>
-      <c r="AG46" s="160"/>
-      <c r="AH46" s="160"/>
-      <c r="AI46" s="160"/>
-      <c r="AJ46" s="160"/>
-      <c r="AK46" s="160"/>
-      <c r="AL46" s="161"/>
+      <c r="AB46" s="169"/>
+      <c r="AC46" s="170"/>
+      <c r="AD46" s="170"/>
+      <c r="AE46" s="170"/>
+      <c r="AF46" s="170"/>
+      <c r="AG46" s="170"/>
+      <c r="AH46" s="170"/>
+      <c r="AI46" s="170"/>
+      <c r="AJ46" s="170"/>
+      <c r="AK46" s="170"/>
+      <c r="AL46" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A37:B41"/>
+    <mergeCell ref="C37:M41"/>
+    <mergeCell ref="AB37:AL41"/>
+    <mergeCell ref="A42:B46"/>
+    <mergeCell ref="C42:M46"/>
+    <mergeCell ref="AB42:AL46"/>
+    <mergeCell ref="A27:B31"/>
+    <mergeCell ref="C27:M31"/>
+    <mergeCell ref="AB27:AL31"/>
+    <mergeCell ref="A32:B36"/>
+    <mergeCell ref="C32:M36"/>
+    <mergeCell ref="AB32:AL36"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="C17:M21"/>
+    <mergeCell ref="AB17:AL21"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:M26"/>
+    <mergeCell ref="AB22:AL26"/>
+    <mergeCell ref="A7:B11"/>
+    <mergeCell ref="C7:M11"/>
+    <mergeCell ref="AB7:AL11"/>
+    <mergeCell ref="A12:B16"/>
+    <mergeCell ref="C12:M16"/>
+    <mergeCell ref="AB12:AL16"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -21110,30 +21146,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A7:B11"/>
-    <mergeCell ref="C7:M11"/>
-    <mergeCell ref="AB7:AL11"/>
-    <mergeCell ref="A12:B16"/>
-    <mergeCell ref="C12:M16"/>
-    <mergeCell ref="AB12:AL16"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="C17:M21"/>
-    <mergeCell ref="AB17:AL21"/>
-    <mergeCell ref="A22:B26"/>
-    <mergeCell ref="C22:M26"/>
-    <mergeCell ref="AB22:AL26"/>
-    <mergeCell ref="A27:B31"/>
-    <mergeCell ref="C27:M31"/>
-    <mergeCell ref="AB27:AL31"/>
-    <mergeCell ref="A32:B36"/>
-    <mergeCell ref="C32:M36"/>
-    <mergeCell ref="AB32:AL36"/>
-    <mergeCell ref="A37:B41"/>
-    <mergeCell ref="C37:M41"/>
-    <mergeCell ref="AB37:AL41"/>
-    <mergeCell ref="A42:B46"/>
-    <mergeCell ref="C42:M46"/>
-    <mergeCell ref="AB42:AL46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
